--- a/docs/shrcore/shr-core-SurgicalProcedure.xlsx
+++ b/docs/shrcore/shr-core-SurgicalProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="401">
   <si>
     <t>Path</t>
   </si>
@@ -482,6 +482,26 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonAuthor-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonInformationSource-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
     <t>treatmentintent</t>
   </si>
   <si>
@@ -744,7 +764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -1135,7 +1155,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}
 </t>
   </si>
   <si>
@@ -1427,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1437,7 +1457,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3671,40 +3691,38 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K21" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3753,7 +3771,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3771,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3782,9 +3800,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3793,7 +3813,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3802,21 +3822,17 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3864,7 +3880,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3882,22 +3898,22 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3910,21 +3926,23 @@
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3973,7 +3991,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3991,7 +4009,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4002,18 +4020,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4025,16 +4043,18 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4082,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4100,29 +4120,29 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4134,17 +4154,15 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4193,7 +4211,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4211,7 +4229,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4220,42 +4238,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4280,11 +4296,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4302,13 +4320,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4317,13 +4335,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4331,43 +4349,43 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -4413,13 +4431,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4431,7 +4449,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4440,9 +4458,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4450,30 +4468,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4498,13 +4518,11 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4522,28 +4540,28 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4551,7 +4569,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4562,30 +4580,32 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4607,13 +4627,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4631,7 +4651,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4649,32 +4669,32 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4683,18 +4703,16 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4718,11 +4736,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4740,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4749,41 +4769,41 @@
         <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4792,13 +4812,13 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4825,13 +4845,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4849,10 +4869,10 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>49</v>
@@ -4864,35 +4884,35 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4901,16 +4921,18 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4934,13 +4956,11 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4958,7 +4978,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4973,25 +4993,25 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5010,13 +5030,13 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5067,10 +5087,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>49</v>
@@ -5082,32 +5102,32 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5119,13 +5139,13 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5176,36 +5196,36 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5213,28 +5233,28 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5285,7 +5305,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5300,25 +5320,25 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5334,20 +5354,18 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5396,7 +5414,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5408,13 +5426,13 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5425,40 +5443,38 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5507,13 +5523,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5525,7 +5541,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5536,18 +5552,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5556,18 +5572,20 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5592,13 +5610,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5616,13 +5634,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5634,52 +5652,52 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5727,13 +5745,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5745,18 +5763,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5776,21 +5794,19 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5814,13 +5830,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5838,7 +5854,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5856,18 +5872,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5875,7 +5891,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>49</v>
@@ -5890,17 +5906,17 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5949,10 +5965,10 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>49</v>
@@ -5967,18 +5983,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5998,19 +6014,21 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6034,13 +6052,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6058,13 +6076,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6076,10 +6094,10 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6087,7 +6105,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6110,18 +6128,18 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6169,13 +6187,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6187,10 +6205,10 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6198,7 +6216,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6209,7 +6227,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6221,13 +6239,13 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6254,11 +6272,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6276,7 +6296,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6294,18 +6314,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6325,18 +6345,20 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6385,13 +6407,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6403,10 +6425,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6414,11 +6436,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6434,20 +6456,18 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>70</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6472,31 +6492,29 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6514,22 +6532,20 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6538,7 +6554,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6550,11 +6566,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6605,13 +6623,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6623,7 +6641,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6634,13 +6652,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6659,13 +6675,17 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K48" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6702,16 +6722,16 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>76</v>
@@ -6732,7 +6752,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6743,7 +6763,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>310</v>
@@ -6852,9 +6872,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6872,23 +6894,17 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K50" t="s" s="2">
         <v>314</v>
       </c>
+      <c r="K50" s="2"/>
       <c r="L50" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6935,11 +6951,15 @@
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6950,20 +6970,22 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6972,7 +6994,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6981,23 +7003,17 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7044,11 +7060,15 @@
       <c r="AD51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7059,18 +7079,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7081,7 +7101,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7093,18 +7113,20 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7128,13 +7150,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7151,15 +7173,11 @@
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7170,18 +7188,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7192,7 +7210,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7201,21 +7219,23 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>62</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7262,15 +7282,11 @@
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7281,18 +7297,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7303,7 +7319,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7312,19 +7328,19 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7353,10 +7369,10 @@
         <v>106</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7374,13 +7390,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7392,7 +7408,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7403,7 +7419,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7426,18 +7442,18 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7485,7 +7501,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7503,7 +7519,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7514,7 +7530,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7537,15 +7553,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7573,10 +7591,10 @@
         <v>106</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7594,7 +7612,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7612,7 +7630,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7623,7 +7641,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7646,16 +7664,18 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7703,7 +7723,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7721,18 +7741,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7755,13 +7775,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7788,13 +7808,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7812,7 +7832,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7824,13 +7844,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7841,7 +7861,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7852,7 +7872,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7864,13 +7884,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>62</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>64</v>
+        <v>367</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7921,13 +7941,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7939,22 +7959,22 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7973,17 +7993,15 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8032,7 +8050,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8044,13 +8062,13 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>66</v>
+        <v>373</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8061,40 +8079,38 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8143,13 +8159,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8161,7 +8177,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8172,18 +8188,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8195,15 +8211,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>70</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8228,13 +8246,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8252,13 +8270,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8270,7 +8288,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>376</v>
+        <v>66</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8281,38 +8299,40 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>378</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>379</v>
+        <v>158</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8361,13 +8381,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8379,7 +8399,7 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8390,7 +8410,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8401,7 +8421,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8413,20 +8433,16 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8450,13 +8466,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8474,25 +8490,25 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8503,7 +8519,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8511,10 +8527,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8526,17 +8542,15 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>197</v>
+        <v>384</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M65" t="s" s="2">
         <v>386</v>
       </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8561,59 +8575,283 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
+      <c r="X67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM65">
+  <autoFilter ref="A1:AM67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8623,7 +8861,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
